--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>980933.507749227</v>
+        <v>973024.2220858856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284522</v>
+        <v>8729695.796941048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184533.616287899</v>
+        <v>4135159.406663877</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10062288.31244521</v>
+        <v>10063546.69206733</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>312.3937252350512</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>6.808968459386874</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.09260911231087</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>186.0150712436125</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>8.371225290773655</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36.43543889864667</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>182.6184034549215</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.2369731615192</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>88.86957797204941</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>134.0845455781038</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>235.9375844494532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>205.6364455689697</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>188.6059442291526</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>181.1375494785993</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.1690567639037</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>36.23518206335778</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.31354443380485</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>40.47543079121925</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>51.06561173382018</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>97.27989568773809</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,10 +2965,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>42.86209348694648</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>94.17546490534929</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>290.5568780276052</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.56170606870376</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>156.1457465113655</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.16836829528619</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>377.8794837125466</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8708392937382</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>4.004111547232017</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>46.68790554666041</v>
       </c>
       <c r="H41" t="n">
-        <v>290.5568780276052</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305736</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.3165365479904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>264.24544663629</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>61.28737103419819</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.9278109811839</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>83.47425054667258</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362306</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>940.9219833362306</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>940.9219833362306</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>522.9581752344175</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4361,19 +4361,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2635.242655630143</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2304.179768286572</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1951.411113016458</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>653.2879649010699</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9995417192326</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.255079661038</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.255079661038</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.255079661038</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.255079661038</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="X5" t="n">
-        <v>2509.255079661038</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>2063.986705405919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>534.3109524212774</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>365.3747694933705</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.2581300810348</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.2581300810348</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.2581300810348</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>215.2581300810348</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4726,49 +4726,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>715.9594172515172</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.4060156132145</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2516.740328444775</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2627.474653694302</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>625.0058556773363</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1828.690733635983</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1988.203046304744</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053.877663279709</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>964.1104128028916</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>813.9937733905558</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="E10" t="n">
-        <v>666.0806798081627</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1907323102523</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>313.8935913734158</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.061124352531</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>663.098607412119</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>304.8329088053685</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5039,7 +5039,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5048,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3117.892240226373</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218342</v>
@@ -5276,7 +5276,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5315,13 +5315,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5361,7 +5361,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5458,28 +5458,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5552,13 +5552,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348091</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,7 +5595,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158132</v>
@@ -5604,7 +5604,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.2721046070461</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>662.2721046070461</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>662.2721046070461</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>514.359011024653</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1071.910120335303</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>843.9205694372858</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.9205694372858</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5777,25 +5777,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763411</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763411</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763411</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493357</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456396</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.574689558379</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.782110414849</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -5993,13 +5993,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.811212990069</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C25" t="n">
-        <v>612.8750300621621</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>462.7583906498263</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>314.8452970674332</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
         <v>263.2638710736754</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203087</v>
+        <v>771.1140605227953</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6230,16 +6230,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1768.250487965527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.483872535053</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1257.381005660696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1002.696517454809</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W28" t="n">
-        <v>713.2793474178487</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X28" t="n">
-        <v>485.2897965198314</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>264.4972173763013</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143013</v>
@@ -6449,13 +6449,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6464,19 +6464,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3942.370854773035</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>3773.434671845128</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432792</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.404938850399</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.514991352489</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699243</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>3942.370854773035</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W31" t="n">
-        <v>3942.370854773035</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X31" t="n">
-        <v>3942.370854773035</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y31" t="n">
-        <v>3942.370854773035</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,13 +6701,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
         <v>3196.009277420603</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763411</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763411</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>1579.700392461433</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456396</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.574689558379</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y34" t="n">
-        <v>2992.782110414849</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022.066722926593</v>
+        <v>2315.558518914073</v>
       </c>
       <c r="C35" t="n">
-        <v>1653.104205986181</v>
+        <v>1946.596001973661</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.838507379431</v>
+        <v>1588.330303366911</v>
       </c>
       <c r="E35" t="n">
-        <v>909.0502547811866</v>
+        <v>1202.542050768667</v>
       </c>
       <c r="F35" t="n">
-        <v>498.064349991579</v>
+        <v>791.556145979059</v>
       </c>
       <c r="G35" t="n">
-        <v>82.99189983657543</v>
+        <v>376.4836958240555</v>
       </c>
       <c r="H35" t="n">
         <v>82.99189983657543</v>
@@ -6935,25 +6935,25 @@
         <v>82.99189983657543</v>
       </c>
       <c r="J35" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K35" t="n">
-        <v>605.6904044854473</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L35" t="n">
-        <v>1056.724617733856</v>
+        <v>1224.130266754209</v>
       </c>
       <c r="M35" t="n">
-        <v>2035.274920563685</v>
+        <v>1757.662171426134</v>
       </c>
       <c r="N35" t="n">
-        <v>2944.544726279772</v>
+        <v>2304.440988484916</v>
       </c>
       <c r="O35" t="n">
-        <v>3447.517197159108</v>
+        <v>2918.744635316035</v>
       </c>
       <c r="P35" t="n">
-        <v>3842.291563516287</v>
+        <v>3632.099722762981</v>
       </c>
       <c r="Q35" t="n">
         <v>4090.577925271969</v>
@@ -6965,22 +6965,22 @@
         <v>4149.594991828772</v>
       </c>
       <c r="T35" t="n">
-        <v>4109.633672567455</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U35" t="n">
-        <v>3856.103195841291</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="V35" t="n">
-        <v>3525.040308497721</v>
+        <v>3818.532104485201</v>
       </c>
       <c r="W35" t="n">
-        <v>3172.271653227606</v>
+        <v>3465.763449215086</v>
       </c>
       <c r="X35" t="n">
-        <v>2798.805894966526</v>
+        <v>3092.297690954007</v>
       </c>
       <c r="Y35" t="n">
-        <v>2408.666562990715</v>
+        <v>2702.158358978195</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2954.768124134525</v>
+        <v>685.6345566033212</v>
       </c>
       <c r="C37" t="n">
-        <v>2785.831941206618</v>
+        <v>527.9115803292146</v>
       </c>
       <c r="D37" t="n">
-        <v>2785.831941206618</v>
+        <v>377.7949409168789</v>
       </c>
       <c r="E37" t="n">
-        <v>2637.918847624225</v>
+        <v>229.8818473344858</v>
       </c>
       <c r="F37" t="n">
-        <v>2491.028900126315</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="G37" t="n">
-        <v>2323.326063501034</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H37" t="n">
-        <v>2288.812560172462</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I37" t="n">
-        <v>2288.812560172462</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J37" t="n">
-        <v>2333.935192619398</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K37" t="n">
-        <v>2537.922375568274</v>
+        <v>332.1017152323874</v>
       </c>
       <c r="L37" t="n">
-        <v>2854.48217401677</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M37" t="n">
-        <v>3198.639219616319</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N37" t="n">
-        <v>3540.047596322184</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O37" t="n">
-        <v>3839.377195242597</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P37" t="n">
-        <v>4071.984695676257</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q37" t="n">
-        <v>4149.594991828772</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R37" t="n">
-        <v>4059.764534586299</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S37" t="n">
-        <v>3868.078650413126</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="T37" t="n">
-        <v>3646.312034982652</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="U37" t="n">
-        <v>3357.209168108295</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="V37" t="n">
-        <v>3357.209168108295</v>
+        <v>1377.492770614052</v>
       </c>
       <c r="W37" t="n">
-        <v>3357.209168108295</v>
+        <v>1088.075600577091</v>
       </c>
       <c r="X37" t="n">
-        <v>3357.209168108295</v>
+        <v>1088.075600577091</v>
       </c>
       <c r="Y37" t="n">
-        <v>3136.416588964765</v>
+        <v>867.283021433561</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1588.330303366911</v>
       </c>
       <c r="E38" t="n">
-        <v>1202.542050768667</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F38" t="n">
-        <v>791.556145979059</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G38" t="n">
         <v>380.5755002278082</v>
@@ -7175,16 +7175,16 @@
         <v>271.8710307956009</v>
       </c>
       <c r="K38" t="n">
-        <v>605.6904044854473</v>
+        <v>622.723009445592</v>
       </c>
       <c r="L38" t="n">
-        <v>1056.724617733856</v>
+        <v>1487.241825098947</v>
       </c>
       <c r="M38" t="n">
-        <v>2035.274920563685</v>
+        <v>2020.773729770871</v>
       </c>
       <c r="N38" t="n">
-        <v>2944.544726279772</v>
+        <v>2567.552546829654</v>
       </c>
       <c r="O38" t="n">
         <v>3447.517197159108</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>958.0236378855005</v>
+        <v>2526.085303776539</v>
       </c>
       <c r="C39" t="n">
-        <v>783.5706086043735</v>
+        <v>2351.632274495412</v>
       </c>
       <c r="D39" t="n">
-        <v>634.6361989431223</v>
+        <v>2202.697864834161</v>
       </c>
       <c r="E39" t="n">
-        <v>475.3987439376668</v>
+        <v>2043.460409828705</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8641859645518</v>
+        <v>1896.92585185559</v>
       </c>
       <c r="G39" t="n">
-        <v>192.5010857971699</v>
+        <v>1760.562751688208</v>
       </c>
       <c r="H39" t="n">
-        <v>101.9991914350375</v>
+        <v>1670.060857326076</v>
       </c>
       <c r="I39" t="n">
-        <v>82.99189983657543</v>
+        <v>1651.053565727614</v>
       </c>
       <c r="J39" t="n">
-        <v>176.6691693271928</v>
+        <v>1744.730835218231</v>
       </c>
       <c r="K39" t="n">
-        <v>414.9333683075399</v>
+        <v>1982.995034198578</v>
       </c>
       <c r="L39" t="n">
-        <v>781.6315286202052</v>
+        <v>2349.693194511244</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.907853842521</v>
+        <v>2796.96951973356</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.430897396976</v>
+        <v>3270.492563288014</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.39217681503</v>
+        <v>3681.453842706069</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.891768291133</v>
+        <v>3991.953434182172</v>
       </c>
       <c r="Q39" t="n">
-        <v>2581.533325937733</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="R39" t="n">
-        <v>2581.388972530248</v>
+        <v>4149.450638421286</v>
       </c>
       <c r="S39" t="n">
-        <v>2451.951086023728</v>
+        <v>4020.012751914767</v>
       </c>
       <c r="T39" t="n">
-        <v>2259.308085701584</v>
+        <v>3827.369751592622</v>
       </c>
       <c r="U39" t="n">
-        <v>2031.240238835999</v>
+        <v>3599.301904727038</v>
       </c>
       <c r="V39" t="n">
-        <v>1796.088130604257</v>
+        <v>3364.149796495295</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.850773876055</v>
+        <v>3109.912439767093</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.999273670522</v>
+        <v>2902.060939561561</v>
       </c>
       <c r="Y39" t="n">
-        <v>1126.238974905569</v>
+        <v>2694.300640796607</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.1651752169497</v>
+        <v>1108.093463846199</v>
       </c>
       <c r="C40" t="n">
-        <v>479.1651752169497</v>
+        <v>939.1572809182926</v>
       </c>
       <c r="D40" t="n">
-        <v>479.1651752169497</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E40" t="n">
-        <v>331.2520816345566</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F40" t="n">
-        <v>184.3621341366462</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G40" t="n">
-        <v>184.3621341366462</v>
+        <v>326.5347638003723</v>
       </c>
       <c r="H40" t="n">
         <v>180.3175770182301</v>
@@ -7360,22 +7360,22 @@
         <v>1943.774331492885</v>
       </c>
       <c r="T40" t="n">
-        <v>1722.007716062411</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="U40" t="n">
-        <v>1432.904849188054</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="V40" t="n">
-        <v>1178.220360982167</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="W40" t="n">
-        <v>888.8031909452068</v>
+        <v>1738.524058717986</v>
       </c>
       <c r="X40" t="n">
-        <v>660.8136400471894</v>
+        <v>1510.534507819969</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.8136400471894</v>
+        <v>1289.741928676439</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.558518914073</v>
+        <v>1951.737373715004</v>
       </c>
       <c r="C41" t="n">
-        <v>1946.596001973661</v>
+        <v>1582.774856774593</v>
       </c>
       <c r="D41" t="n">
-        <v>1588.330303366911</v>
+        <v>1224.509158167842</v>
       </c>
       <c r="E41" t="n">
-        <v>1202.542050768667</v>
+        <v>838.720905569598</v>
       </c>
       <c r="F41" t="n">
-        <v>791.556145979059</v>
+        <v>427.7350007799905</v>
       </c>
       <c r="G41" t="n">
-        <v>376.4836958240555</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
         <v>82.99189983657543</v>
@@ -7409,52 +7409,52 @@
         <v>82.99189983657543</v>
       </c>
       <c r="J41" t="n">
-        <v>282.2558384418433</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K41" t="n">
-        <v>616.0752121316898</v>
+        <v>1094.000011951253</v>
       </c>
       <c r="L41" t="n">
-        <v>1480.594027785045</v>
+        <v>1545.034225199662</v>
       </c>
       <c r="M41" t="n">
-        <v>2014.125932456969</v>
+        <v>2078.566129871587</v>
       </c>
       <c r="N41" t="n">
-        <v>2560.904749515752</v>
+        <v>2625.344946930369</v>
       </c>
       <c r="O41" t="n">
-        <v>3063.877220395088</v>
+        <v>3128.936476069341</v>
       </c>
       <c r="P41" t="n">
-        <v>3777.232307842034</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q41" t="n">
-        <v>4025.518669597716</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R41" t="n">
         <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4149.594991828772</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T41" t="n">
-        <v>4149.594991828772</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="U41" t="n">
-        <v>4149.594991828772</v>
+        <v>3785.773846629703</v>
       </c>
       <c r="V41" t="n">
-        <v>3818.532104485201</v>
+        <v>3454.710959286132</v>
       </c>
       <c r="W41" t="n">
-        <v>3465.763449215086</v>
+        <v>3101.942304016018</v>
       </c>
       <c r="X41" t="n">
-        <v>3092.297690954007</v>
+        <v>2728.476545754938</v>
       </c>
       <c r="Y41" t="n">
-        <v>2702.158358978195</v>
+        <v>2338.337213779126</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>958.0236378855016</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C42" t="n">
-        <v>783.5706086043746</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D42" t="n">
-        <v>634.6361989431234</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E42" t="n">
-        <v>475.3987439376679</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F42" t="n">
-        <v>328.8641859645529</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G42" t="n">
-        <v>192.5010857971709</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9991914350378</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
         <v>82.99189983657543</v>
       </c>
       <c r="J42" t="n">
-        <v>176.6691693271931</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K42" t="n">
-        <v>414.9333683075404</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>781.6315286202062</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.907853842522</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
         <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2113.392176815031</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.891768291134</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2581.533325937734</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
-        <v>2581.38897253025</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S42" t="n">
-        <v>2451.95108602373</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T42" t="n">
-        <v>2259.308085701585</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2031.240238836001</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
-        <v>1796.088130604258</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W42" t="n">
-        <v>1541.850773876056</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1333.999273670524</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
-        <v>1126.23897490557</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>250.6947364618565</v>
+        <v>1108.093463846199</v>
       </c>
       <c r="C43" t="n">
-        <v>250.6947364618565</v>
+        <v>939.1572809182926</v>
       </c>
       <c r="D43" t="n">
-        <v>250.6947364618565</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E43" t="n">
-        <v>250.6947364618565</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F43" t="n">
-        <v>250.6947364618565</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G43" t="n">
-        <v>82.99189983657543</v>
+        <v>326.5347638003723</v>
       </c>
       <c r="H43" t="n">
-        <v>82.99189983657543</v>
+        <v>180.3175770182301</v>
       </c>
       <c r="I43" t="n">
         <v>82.99189983657543</v>
@@ -7591,28 +7591,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1853.943874250413</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S43" t="n">
-        <v>1662.257990077239</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.491374646765</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.388507772409</v>
+        <v>1654.671464618528</v>
       </c>
       <c r="V43" t="n">
-        <v>896.7040195665217</v>
+        <v>1654.671464618528</v>
       </c>
       <c r="W43" t="n">
-        <v>607.2868495295611</v>
+        <v>1654.671464618528</v>
       </c>
       <c r="X43" t="n">
-        <v>379.2972986315438</v>
+        <v>1510.534507819969</v>
       </c>
       <c r="Y43" t="n">
-        <v>250.6947364618565</v>
+        <v>1289.741928676439</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1433.87404252768</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1064.911525587268</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>706.6458269805178</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>320.8575743822735</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>320.8575743822735</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>320.8575743822735</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="L44" t="n">
-        <v>470.8051702953177</v>
+        <v>411.7881037385156</v>
       </c>
       <c r="M44" t="n">
-        <v>1004.337074967242</v>
+        <v>945.3200084104401</v>
       </c>
       <c r="N44" t="n">
-        <v>1551.115892026025</v>
+        <v>1492.098825469222</v>
       </c>
       <c r="O44" t="n">
-        <v>2054.088362905361</v>
+        <v>1995.071296348559</v>
       </c>
       <c r="P44" t="n">
-        <v>2448.86272926254</v>
+        <v>2389.845662705738</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2638.13202446142</v>
       </c>
       <c r="R44" t="n">
         <v>2697.149091018222</v>
@@ -7676,22 +7676,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2491.171343402445</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.242655630143</v>
+        <v>2491.171343402445</v>
       </c>
       <c r="V44" t="n">
-        <v>2304.179768286572</v>
+        <v>2160.108456058874</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.411113016458</v>
+        <v>1807.33980078876</v>
       </c>
       <c r="X44" t="n">
-        <v>1577.945354755378</v>
+        <v>1433.87404252768</v>
       </c>
       <c r="Y44" t="n">
-        <v>1577.945354755378</v>
+        <v>1433.87404252768</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>299.8152679483409</v>
       </c>
       <c r="G45" t="n">
-        <v>163.4521677809589</v>
+        <v>163.452167780959</v>
       </c>
       <c r="H45" t="n">
-        <v>72.95027341882647</v>
+        <v>72.9502734188265</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>147.6202513109818</v>
       </c>
       <c r="K45" t="n">
-        <v>385.884450291329</v>
+        <v>385.8844502913289</v>
       </c>
       <c r="L45" t="n">
-        <v>752.5826106039943</v>
+        <v>752.5826106039942</v>
       </c>
       <c r="M45" t="n">
         <v>1199.85893582631</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1079.044545829988</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C46" t="n">
-        <v>910.1083629020816</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
-        <v>759.9917234897458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>612.0786299073527</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>465.1886824094423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>297.4858457841613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>151.2686590020191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>99.06561426729999</v>
+        <v>99.06561426730002</v>
       </c>
       <c r="K46" t="n">
         <v>303.0527972161764</v>
@@ -7831,25 +7831,25 @@
         <v>1914.725413476674</v>
       </c>
       <c r="S46" t="n">
-        <v>1914.725413476674</v>
+        <v>1830.407988682055</v>
       </c>
       <c r="T46" t="n">
-        <v>1692.9587980462</v>
+        <v>1608.641373251581</v>
       </c>
       <c r="U46" t="n">
-        <v>1692.9587980462</v>
+        <v>1319.538506377225</v>
       </c>
       <c r="V46" t="n">
-        <v>1438.274309840313</v>
+        <v>1064.854018171338</v>
       </c>
       <c r="W46" t="n">
-        <v>1438.274309840313</v>
+        <v>775.436848134377</v>
       </c>
       <c r="X46" t="n">
-        <v>1210.284758942295</v>
+        <v>775.436848134377</v>
       </c>
       <c r="Y46" t="n">
-        <v>1210.284758942295</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780382</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.04072454780369</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,10 +8532,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,13 +8544,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>311.7999084534176</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,10 +9887,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>170.1140909277296</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>315.167921710931</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>366.1525137952572</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>112.4557332846282</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>17.20465147489358</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>366.1525137952572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>10.48970469317416</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.6253113733682767</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5290475293059</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>244.4151990489024</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>72.57258286784696</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.43324911404528</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>319.3810331793612</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,13 +22939,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>116.2766577705859</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,22 +23021,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>182.654488316086</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>2.679930784417536</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -23069,25 +23069,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,31 +23176,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>78.37724312657842</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>18.62755109112871</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>145.9927856228086</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23309,16 +23309,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.35872638993231</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.1251564493164</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>168.0688818921499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>109.1858659595735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276432</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.356549390718</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>94.35543628911105</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>92.48912964370381</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>209.2755498368815</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>157.9621784184787</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>4.050886359715264</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25205,10 +25205,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>164.3562640709164</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>11.1010745872623</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.5866466190346</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25360,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25397,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.050886359715207</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.050886359715207</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.7509033670888</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>364.233820106793</v>
       </c>
       <c r="H41" t="n">
-        <v>4.050886359715264</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>83.0140681584636</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.26811680410437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>30.36231775103045</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25916,10 +25916,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>189.7078009247038</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.90416920075342</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>106.2947747847693</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>764829.5403202326</v>
+        <v>764829.5403202327</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764829.5403202326</v>
+        <v>766138.2551272397</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766138.2551272399</v>
+        <v>766138.2551272397</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823272.5892503086</v>
+        <v>823272.5892503085</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823272.5892503087</v>
+        <v>823272.5892503086</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980765.2139519757</v>
+        <v>980765.2139519756</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912619.9563854377</v>
+        <v>912619.9563854379</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912619.9563854379</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173336</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173333</v>
+        <v>328930.1971346175</v>
       </c>
       <c r="D2" t="n">
-        <v>328930.1971346177</v>
+        <v>328930.1971346179</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756815</v>
@@ -26344,10 +26344,10 @@
         <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
-        <v>410096.0422132349</v>
+        <v>410096.0422132347</v>
       </c>
       <c r="N2" t="n">
-        <v>410096.0422132351</v>
+        <v>410096.0422132348</v>
       </c>
       <c r="O2" t="n">
         <v>410096.0422132348</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>445640.2295734512</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.7440129484</v>
+        <v>97970.74401294837</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892843</v>
+        <v>48993.41451395674</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395673</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142411</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278143</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26509,7 +26509,7 @@
         <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.79825641087</v>
+        <v>64753.79825641088</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424039.6098195489</v>
+        <v>-426135.4710420943</v>
       </c>
       <c r="C6" t="n">
-        <v>165928.2693949954</v>
+        <v>-4071.650346821159</v>
       </c>
       <c r="D6" t="n">
-        <v>9052.083861799416</v>
+        <v>192374.7374498144</v>
       </c>
       <c r="E6" t="n">
-        <v>-150206.2383749682</v>
+        <v>-150350.5566138371</v>
       </c>
       <c r="F6" t="n">
-        <v>295433.9911984829</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="G6" t="n">
-        <v>295433.991198483</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="H6" t="n">
-        <v>214695.1612068228</v>
+        <v>213873.8639561239</v>
       </c>
       <c r="I6" t="n">
-        <v>312665.9052197712</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="J6" t="n">
-        <v>136242.6860271784</v>
+        <v>135421.3887764792</v>
       </c>
       <c r="K6" t="n">
-        <v>312665.9052197712</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="L6" t="n">
-        <v>312665.9052197712</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="M6" t="n">
-        <v>305209.8530930796</v>
+        <v>304681.4769186256</v>
       </c>
       <c r="N6" t="n">
-        <v>305209.8530930797</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="O6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="P6" t="n">
-        <v>278366.889917746</v>
+        <v>278222.5716788771</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>496.3006002552332</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026373</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026373</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34372,7 +34372,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>656.8393326214552</v>
+        <v>597.2261340792309</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34390,7 +34390,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.37821951911188</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35264,13 +35264,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>421.5874110062447</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,10 +36607,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>568.8760771471015</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>867.4697571238424</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,19 +37312,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>918.4543492081687</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>620.5087341728473</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37543,19 +37543,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>354.3959380302941</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>918.4543492081687</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>201.2767056618867</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.6783122615874</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>421.0729176514679</v>
+        <v>361.4597191092436</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
